--- a/Probability Project Data.xlsx
+++ b/Probability Project Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Github Repositories\Python\Markov-Chain-for-Probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C2DC47-C81D-4382-A2CD-B264C06324B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752BFC9-33B2-4E57-B515-994E671BF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{2B40AE2B-0876-AD49-A0BC-65E240822139}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>Season</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>04-05</t>
-  </si>
-  <si>
-    <t>Not Known</t>
   </si>
   <si>
     <t>03-04</t>
@@ -518,9 +515,9 @@
     <tableColumn id="30" xr3:uid="{6EB674B8-5BE9-2742-9CCD-744AFD031AEB}" name="Neutral Games Lost" dataDxfId="5"/>
     <tableColumn id="31" xr3:uid="{02DED120-2F2F-FA45-9CC5-6796E1A08117}" name="Conference Games Won" dataDxfId="4"/>
     <tableColumn id="32" xr3:uid="{9BBF7A55-6F8A-3B46-9E03-6BA3A4EAB1F9}" name="Conference Games Lost" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{FC84F4F9-44DC-114D-9E12-D98A830046E9}" name="Minutes" dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{6D9FE05C-B8EE-594C-8F4F-8E8EEE4D2494}" name="AP Poll Ranking" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{151192C7-A29B-0C49-8873-EC3BD91274CF}" name="USA Today Coaches Poll Ranking" dataDxfId="0"/>
+    <tableColumn id="33" xr3:uid="{FC84F4F9-44DC-114D-9E12-D98A830046E9}" name="Minutes" dataDxfId="0"/>
+    <tableColumn id="34" xr3:uid="{6D9FE05C-B8EE-594C-8F4F-8E8EEE4D2494}" name="AP Poll Ranking" dataDxfId="2"/>
+    <tableColumn id="35" xr3:uid="{151192C7-A29B-0C49-8873-EC3BD91274CF}" name="USA Today Coaches Poll Ranking" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -825,7 +822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AB4CB-49C7-5748-9B5D-D1933262EFEF}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB24" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4708,9 +4707,6 @@
       <c r="AF36" s="2">
         <v>3</v>
       </c>
-      <c r="AG36" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="AH36" s="2">
         <v>13</v>
       </c>
@@ -4815,9 +4811,6 @@
       <c r="AF37" s="2">
         <v>13</v>
       </c>
-      <c r="AG37" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="AH37" s="5" t="s">
         <v>38</v>
       </c>
@@ -4827,7 +4820,7 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -4921,9 +4914,6 @@
       </c>
       <c r="AF38" s="2">
         <v>2</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH38" s="2">
         <v>4</v>
@@ -4934,7 +4924,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
@@ -5028,9 +5018,6 @@
       </c>
       <c r="AF39" s="2">
         <v>14</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH39" s="5" t="s">
         <v>38</v>
@@ -5041,7 +5028,7 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>36</v>
@@ -5135,9 +5122,6 @@
       </c>
       <c r="AF40" s="2">
         <v>1</v>
-      </c>
-      <c r="AG40" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH40" s="2">
         <v>5</v>
@@ -5148,7 +5132,7 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>37</v>
@@ -5242,9 +5226,6 @@
       </c>
       <c r="AF41" s="2">
         <v>15</v>
-      </c>
-      <c r="AG41" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH41" s="5" t="s">
         <v>38</v>
@@ -5255,7 +5236,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -5349,9 +5330,6 @@
       </c>
       <c r="AF42" s="2">
         <v>6</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH42" s="2">
         <v>14</v>
@@ -5362,7 +5340,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>37</v>
@@ -5456,9 +5434,6 @@
       </c>
       <c r="AF43" s="2">
         <v>10</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH43" s="5" t="s">
         <v>38</v>
@@ -5469,7 +5444,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>36</v>
@@ -5563,9 +5538,6 @@
       </c>
       <c r="AF44" s="2">
         <v>9</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH44" s="2" t="s">
         <v>40</v>
@@ -5576,7 +5548,7 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>37</v>
@@ -5670,9 +5642,6 @@
       </c>
       <c r="AF45" s="2">
         <v>7</v>
-      </c>
-      <c r="AG45" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="AH45" s="2" t="s">
         <v>38</v>
@@ -5705,60 +5674,60 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Probability Project Data.xlsx
+++ b/Probability Project Data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\Github Repositories\Python\Markov-Chain-for-Probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacsueltenfuss/Documents/Markov-Chain-for-Probability/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752BFC9-33B2-4E57-B515-994E671BF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D3183E-B1E8-7641-86C6-AD76680C57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{2B40AE2B-0876-AD49-A0BC-65E240822139}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{2B40AE2B-0876-AD49-A0BC-65E240822139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,67 +42,85 @@
     <t>Season</t>
   </si>
   <si>
+    <t>Field Goals Made</t>
+  </si>
+  <si>
+    <t>Field Goals Attempted</t>
+  </si>
+  <si>
+    <t>Field Goal Percentage</t>
+  </si>
+  <si>
+    <t>3 Pointers Made</t>
+  </si>
+  <si>
+    <t>3 Pointers Attempted</t>
+  </si>
+  <si>
+    <t>Free Throws Made</t>
+  </si>
+  <si>
+    <t>Free Throws Attempted</t>
+  </si>
+  <si>
+    <t>Free Throw Percentage</t>
+  </si>
+  <si>
+    <t>3 Pointer Percentage</t>
+  </si>
+  <si>
+    <t>Offensive Rebounds</t>
+  </si>
+  <si>
+    <t>Defensive Rebounds</t>
+  </si>
+  <si>
+    <t>Average Rebounds per Game</t>
+  </si>
+  <si>
+    <t>Personal Fouls</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Turnovers</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>Steals</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Average Points per Game</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
-    <t>Field Goals Made</t>
-  </si>
-  <si>
-    <t>Field Goals Attempted</t>
-  </si>
-  <si>
-    <t>Field Goal Percentage</t>
-  </si>
-  <si>
-    <t>3 Pointers Made</t>
-  </si>
-  <si>
-    <t>3 Pointers Attempted</t>
-  </si>
-  <si>
-    <t>3 Pointer Percentage</t>
-  </si>
-  <si>
-    <t>Free Throws Made</t>
-  </si>
-  <si>
-    <t>Free Throws Attempted</t>
-  </si>
-  <si>
-    <t>Free Throw Percentage</t>
-  </si>
-  <si>
-    <t>Offensive Rebounds</t>
-  </si>
-  <si>
-    <t>Defensive Rebounds</t>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>UT</t>
   </si>
   <si>
     <t>Total Rebounds</t>
   </si>
   <si>
-    <t>Average Rebounds per Game</t>
-  </si>
-  <si>
-    <t>Personal Fouls</t>
-  </si>
-  <si>
-    <t>Assists</t>
-  </si>
-  <si>
-    <t>Turnovers</t>
-  </si>
-  <si>
-    <t>Blocks</t>
-  </si>
-  <si>
-    <t>Steals</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Average Points per Game</t>
+    <t>Opponents</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>18-19</t>
   </si>
   <si>
     <t>Games Won</t>
@@ -111,124 +129,106 @@
     <t>Games Lost</t>
   </si>
   <si>
+    <t>Neutral Games Won</t>
+  </si>
+  <si>
+    <t>Neutral Games Lost</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>09-10</t>
+  </si>
+  <si>
+    <t>08-09</t>
+  </si>
+  <si>
+    <t>07-08</t>
+  </si>
+  <si>
+    <t>06-07</t>
+  </si>
+  <si>
+    <t>05-06</t>
+  </si>
+  <si>
+    <t>04-05</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>01-02</t>
+  </si>
+  <si>
+    <t>00-01</t>
+  </si>
+  <si>
+    <t>Conference Games Won</t>
+  </si>
+  <si>
+    <t>Conference Games Lost</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>AP Poll Ranking</t>
+  </si>
+  <si>
+    <t>USA Today Coaches Poll Ranking</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Unranked</t>
+  </si>
+  <si>
+    <t>Non-Austin Games Lost</t>
+  </si>
+  <si>
+    <t>Non-Austin Games Won</t>
+  </si>
+  <si>
+    <t>Austin Games Lost</t>
+  </si>
+  <si>
     <t>Austin Games Won</t>
   </si>
   <si>
-    <t>Austin Games Lost</t>
-  </si>
-  <si>
-    <t>Non-Austin Games Won</t>
-  </si>
-  <si>
-    <t>Non-Austin Games Lost</t>
-  </si>
-  <si>
-    <t>Neutral Games Won</t>
-  </si>
-  <si>
-    <t>Neutral Games Lost</t>
-  </si>
-  <si>
-    <t>Conference Games Won</t>
-  </si>
-  <si>
-    <t>Conference Games Lost</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>AP Poll Ranking</t>
-  </si>
-  <si>
-    <t>USA Today Coaches Poll Ranking</t>
-  </si>
-  <si>
-    <t>21-22</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Opponents</t>
-  </si>
-  <si>
-    <t>Unranked</t>
-  </si>
-  <si>
-    <t>20-21</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>19-20</t>
-  </si>
-  <si>
-    <t>18-19</t>
-  </si>
-  <si>
-    <t>17-18</t>
-  </si>
-  <si>
-    <t>16-17</t>
-  </si>
-  <si>
-    <t>15-16</t>
-  </si>
-  <si>
-    <t>14-15</t>
-  </si>
-  <si>
-    <t>13-14</t>
-  </si>
-  <si>
-    <t>12-13</t>
-  </si>
-  <si>
-    <t>11-12</t>
-  </si>
-  <si>
-    <t>10-11</t>
-  </si>
-  <si>
-    <t>09-10</t>
-  </si>
-  <si>
-    <t>08-09</t>
-  </si>
-  <si>
-    <t>07-08</t>
-  </si>
-  <si>
-    <t>06-07</t>
-  </si>
-  <si>
-    <t>05-06</t>
-  </si>
-  <si>
-    <t>04-05</t>
-  </si>
-  <si>
-    <t>03-04</t>
-  </si>
-  <si>
-    <t>02-03</t>
-  </si>
-  <si>
-    <t>01-02</t>
-  </si>
-  <si>
-    <t>00-01</t>
-  </si>
-  <si>
     <t>States</t>
   </si>
   <si>
+    <t>Toss-Up</t>
+  </si>
+  <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>Toss-Up</t>
   </si>
   <si>
     <t>Random</t>
@@ -476,6 +476,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB9C85E6-946F-D242-A973-A5D4B8FCAE89}" name="Table1" displayName="Table1" ref="A1:AI46" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:AI46" xr:uid="{FB9C85E6-946F-D242-A973-A5D4B8FCAE89}"/>
@@ -515,9 +519,9 @@
     <tableColumn id="30" xr3:uid="{6EB674B8-5BE9-2742-9CCD-744AFD031AEB}" name="Neutral Games Lost" dataDxfId="5"/>
     <tableColumn id="31" xr3:uid="{02DED120-2F2F-FA45-9CC5-6796E1A08117}" name="Conference Games Won" dataDxfId="4"/>
     <tableColumn id="32" xr3:uid="{9BBF7A55-6F8A-3B46-9E03-6BA3A4EAB1F9}" name="Conference Games Lost" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{FC84F4F9-44DC-114D-9E12-D98A830046E9}" name="Minutes" dataDxfId="0"/>
-    <tableColumn id="34" xr3:uid="{6D9FE05C-B8EE-594C-8F4F-8E8EEE4D2494}" name="AP Poll Ranking" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{151192C7-A29B-0C49-8873-EC3BD91274CF}" name="USA Today Coaches Poll Ranking" dataDxfId="1"/>
+    <tableColumn id="33" xr3:uid="{FC84F4F9-44DC-114D-9E12-D98A830046E9}" name="Minutes" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{6D9FE05C-B8EE-594C-8F4F-8E8EEE4D2494}" name="AP Poll Ranking" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{151192C7-A29B-0C49-8873-EC3BD91274CF}" name="USA Today Coaches Poll Ranking" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,162 +826,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AB4CB-49C7-5748-9B5D-D1933262EFEF}">
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB24" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="33.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.875" style="2"/>
+    <col min="36" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>962</v>
@@ -1079,12 +1083,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>706</v>
@@ -1180,18 +1184,18 @@
         <v>7275</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>788</v>
@@ -1287,18 +1291,18 @@
         <v>6250</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI4" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>710</v>
@@ -1394,18 +1398,18 @@
         <v>6250</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>778</v>
@@ -1501,18 +1505,18 @@
         <v>6000</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>692</v>
@@ -1608,18 +1612,18 @@
         <v>6000</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>889</v>
@@ -1718,15 +1722,15 @@
         <v>23</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>747</v>
@@ -1822,18 +1826,18 @@
         <v>6600</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>1117</v>
@@ -1935,12 +1939,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
         <v>839</v>
@@ -2036,18 +2040,18 @@
         <v>7001</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>1002</v>
@@ -2149,12 +2153,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>729</v>
@@ -2250,18 +2254,18 @@
         <v>6850</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>952</v>
@@ -2363,12 +2367,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>716</v>
@@ -2464,18 +2468,18 @@
         <v>7200</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>894</v>
@@ -2571,18 +2575,18 @@
         <v>7100</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI16" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>733</v>
@@ -2678,18 +2682,18 @@
         <v>7100</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>863</v>
@@ -2785,18 +2789,18 @@
         <v>6850</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <v>692</v>
@@ -2892,18 +2896,18 @@
         <v>6849</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>693</v>
@@ -2999,18 +3003,18 @@
         <v>6028</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <v>675</v>
@@ -3106,18 +3110,18 @@
         <v>6025</v>
       </c>
       <c r="AH21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>792</v>
@@ -3213,18 +3217,18 @@
         <v>6400</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>709</v>
@@ -3320,18 +3324,18 @@
         <v>6400</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>885</v>
@@ -3427,18 +3431,18 @@
         <v>6675</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <v>868</v>
@@ -3534,18 +3538,18 @@
         <v>6675</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
         <v>861</v>
@@ -3647,12 +3651,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <v>778</v>
@@ -3748,18 +3752,18 @@
         <v>6750</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
         <v>825</v>
@@ -3858,15 +3862,15 @@
         <v>25</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2">
         <v>709</v>
@@ -3962,18 +3966,18 @@
         <v>6600</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <v>902</v>
@@ -4069,18 +4073,18 @@
         <v>7025</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2">
         <v>774</v>
@@ -4176,18 +4180,18 @@
         <v>7025</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
         <v>775</v>
@@ -4283,18 +4287,18 @@
         <v>6425</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI32" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2">
         <v>685</v>
@@ -4390,18 +4394,18 @@
         <v>6425</v>
       </c>
       <c r="AH33" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
         <v>667</v>
@@ -4497,18 +4501,18 @@
         <v>5624</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI34" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2">
         <v>637</v>
@@ -4604,18 +4608,18 @@
         <v>5625</v>
       </c>
       <c r="AH35" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
         <v>804</v>
@@ -4714,12 +4718,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
         <v>664</v>
@@ -4812,18 +4816,18 @@
         <v>13</v>
       </c>
       <c r="AH37" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
         <v>939</v>
@@ -4922,12 +4926,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C39" s="2">
         <v>776</v>
@@ -5020,18 +5024,18 @@
         <v>14</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2">
         <v>993</v>
@@ -5130,12 +5134,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C41" s="2">
         <v>714</v>
@@ -5228,18 +5232,18 @@
         <v>15</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2">
         <v>825</v>
@@ -5338,12 +5342,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2">
         <v>738</v>
@@ -5436,18 +5440,18 @@
         <v>10</v>
       </c>
       <c r="AH43" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AI43" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C44" s="2">
         <v>858</v>
@@ -5540,18 +5544,18 @@
         <v>9</v>
       </c>
       <c r="AH44" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="AI44" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2">
         <v>701</v>
@@ -5643,11 +5647,11 @@
       <c r="AF45" s="2">
         <v>7</v>
       </c>
-      <c r="AH45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI45" s="2" t="s">
-        <v>38</v>
+      <c r="AH45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI45" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5663,32 +5667,32 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -5712,12 +5716,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
